--- a/static/excel/客户导入模版.xlsx
+++ b/static/excel/客户导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suxiang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A27A1D7-E4D3-4F47-8BFE-28D54C172F19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE559CB4-6EDD-4D06-A418-674997EE795A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -824,103 +824,103 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O8" s="3">
         <v>18717969765</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -928,29 +928,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L1048576 L7 L1:L5" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"已实名认证,未实名认证,实名认证已过期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>"已实名认证,未实名认证"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5 I7:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"中国,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"身份证,护照,军官证"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D7:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5 E7:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"潜客,客户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L6 L8:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"已实名认证,未实名认证,实名认证已过期"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 J7:J1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"大陆,港澳台,境外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H5 H7:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"理财师端入录,管理端入录,投资端入录"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>"已实名认证,未实名认证"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/excel/客户导入模版.xlsx
+++ b/static/excel/客户导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suxiang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE559CB4-6EDD-4D06-A418-674997EE795A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54A7964F-A015-4430-A8BE-07E83B0D0D19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,14 +263,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>证件号</t>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
     <rPh sb="0" eb="1">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
@@ -919,7 +919,9 @@
       <c r="O8" s="3">
         <v>18717969765</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3">
+        <v>12345</v>
+      </c>
       <c r="Q8" s="4"/>
     </row>
   </sheetData>

--- a/static/excel/客户导入模版.xlsx
+++ b/static/excel/客户导入模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suxiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suxiang\pig-ui\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54A7964F-A015-4430-A8BE-07E83B0D0D19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56D5C6DB-3D5D-4902-9FE0-4808BEEB4C44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,9 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,22 +804,22 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -867,7 +864,7 @@
       <c r="N7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -956,7 +953,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/static/excel/客户导入模版.xlsx
+++ b/static/excel/客户导入模版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Documents/project/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whw/ken/crm/所有模版更新于2018-10-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A84DFE-E3B2-5B4A-90EB-492766669D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="580" yWindow="1040" windowWidth="27920" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,6 +39,9 @@
     <t>3、支持国内、国际手机号（国内手机号直接输入手机号即可；国际手机号必须包含加号以及国家地区码，格式示例：“+85259****24”）。</t>
   </si>
   <si>
+    <t>4、部门：上下级部门间用‘|’隔开，且从最上级部门开始，例如"A端事业部|智能投研部"；</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -58,6 +54,12 @@
     <t>客户性质</t>
   </si>
   <si>
+    <t>投资者类型</t>
+  </si>
+  <si>
+    <t>风险等级</t>
+  </si>
+  <si>
     <t>邮箱</t>
   </si>
   <si>
@@ -103,6 +105,12 @@
     <t>潜客</t>
   </si>
   <si>
+    <t>普通投资者</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>理财师端入录</t>
   </si>
   <si>
@@ -152,36 +160,17 @@
   </si>
   <si>
     <t>R5</t>
-  </si>
-  <si>
-    <t>投资者类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通投资者</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>风险等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、部门：上下级部门间用‘|’隔开，且从最上级部门开始，例如"A端事业部|智能投研部"；当投资者类型为普通投资者时，风险等级不能为空；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -568,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="4" width="10.83203125" style="5"/>
@@ -592,7 +581,7 @@
     <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -611,7 +600,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="17">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -630,7 +619,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="17">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -649,7 +638,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="17">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -668,9 +657,9 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="17">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -687,103 +676,103 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P8" s="10">
         <v>18717969765</v>
@@ -799,35 +788,35 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7 M1:M5 M9:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7 M1:M5 M9:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已实名认证,未实名认证,实名认证已过期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"C1-,C1,C2,C3,C4,C5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"已实名认证,未实名认证"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C7:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C7:C1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D7:D1048576 E1:F5 E9:E1048576 F9:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D7:D1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"潜客,客户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5 I7:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5 I7:I1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"理财师端入录,管理端入录,投资端入录"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 J7:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 J7:J1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"中国,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K5 K7:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K5 K7:K1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"大陆,港澳台,境外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"身份证,护照,军官证"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{AD203AEB-137E-9D47-A897-647C34C1CCE6}">
       <formula1>"普通投资者,专业投资者"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"C1-,C1,C2,C3,C4,C5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,33 +825,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -872,46 +861,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
